--- a/1_Management/FeatureList.xlsx
+++ b/1_Management/FeatureList.xlsx
@@ -1,81 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="19820" windowHeight="8360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>服务器支持CentOS/Ubuntu/Windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持收集服务器端总系统开销，包括内存/CPU/网络带宽使用量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支持收集服务器端指定进程的内存/CPU/网络带宽使用量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持用户自定义数据刷新频率</t>
+  </si>
+  <si>
+    <t>支持多用户同时监控同一服务器的性能指标</t>
   </si>
   <si>
     <t>客户端支持Chrome/IE10+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持用户自定义数据刷新频率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持多用户同时监控同一服务器的性能指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够记录用户最近链接过的服务器地址</t>
   </si>
   <si>
     <t>能够在同一界面同时监控多台服务器的性能指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够记录用户最近链接过的服务器地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,22 +92,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -160,71 +172,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -357,8 +369,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -394,26 +406,68 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -429,7 +483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -437,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -445,75 +499,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/1_Management/FeatureList.xlsx
+++ b/1_Management/FeatureList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19820" windowHeight="8360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>No.</t>
   </si>
@@ -48,20 +48,15 @@
     <t>能够在同一界面同时监控多台服务器的性能指标</t>
   </si>
   <si>
-    <t>unknow</t>
+    <t>能够让用户把选定的数据保存到本地（保存格式待定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -70,8 +65,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -92,37 +88,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,6 +404,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -453,21 +437,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -483,7 +466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -491,7 +474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -499,7 +482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -507,7 +490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -515,7 +498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -523,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -531,7 +514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -539,7 +522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -548,41 +531,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
